--- a/Doc/GAMSDemo例程/任务调度相关--数据库规范.xlsx
+++ b/Doc/GAMSDemo例程/任务调度相关--数据库规范.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>SKILL_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_PRIORITY</t>
+  </si>
+  <si>
+    <t>任务优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +272,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -278,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,13 +331,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +377,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -1151,6 +1194,20 @@
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -1165,7 +1222,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -1351,5 +1408,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/GAMSDemo例程/任务调度相关--数据库规范.xlsx
+++ b/Doc/GAMSDemo例程/任务调度相关--数据库规范.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="值班人员表" sheetId="20" r:id="rId1"/>
-    <sheet name="人员任务时间表" sheetId="29" r:id="rId2"/>
-    <sheet name="任务花费时间表" sheetId="30" r:id="rId3"/>
-    <sheet name="任务技能表 " sheetId="31" r:id="rId4"/>
-    <sheet name="任务时间表" sheetId="33" r:id="rId5"/>
+    <sheet name="任务技能表 " sheetId="31" r:id="rId2"/>
+    <sheet name="人员任务时间表" sheetId="29" r:id="rId3"/>
+    <sheet name="任务花费时间表" sheetId="30" r:id="rId4"/>
+    <sheet name="井组之间花费时间" sheetId="34" r:id="rId5"/>
+    <sheet name="任务时间表" sheetId="33" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -204,6 +205,60 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_NAME</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务所属井组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORIGIN_TASK_ID</t>
+  </si>
+  <si>
+    <t>新任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来的任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务花费时间表（IMS_PATROL_POINT_SPEND_TIME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM_POINT_NAME_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_POINT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井组ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +342,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -348,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -374,11 +437,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -703,16 +768,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -802,6 +867,156 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -823,16 +1038,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -941,12 +1156,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -963,16 +1178,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -1063,6 +1278,144 @@
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -1081,12 +1434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -1103,16 +1456,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
@@ -1160,10 +1513,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1178,146 +1531,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1401,6 +1618,20 @@
       <c r="F9" s="2"/>
       <c r="G9" s="7"/>
       <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
